--- a/Data/text_data_for_typos.xlsx
+++ b/Data/text_data_for_typos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="899">
   <si>
     <t xml:space="preserve">session</t>
   </si>
@@ -590,6 +590,9 @@
     <t xml:space="preserve">thw</t>
   </si>
   <si>
+    <t xml:space="preserve">the</t>
+  </si>
+  <si>
     <t xml:space="preserve">HXbndXlbODt7aO7saCENw-tcICALEAG6IYtBdQi5sbOUIpYSY9y1E42hIX6CbT47</t>
   </si>
   <si>
@@ -635,6 +638,9 @@
     <t xml:space="preserve">idk</t>
   </si>
   <si>
+    <t xml:space="preserve">I don’t know</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ug2L9UzVFEp8vcnlT5N3g2HDLeTJhb2KMWE_1AEvRMJLdxOwwv_NfJ1g51fUey4b</t>
   </si>
   <si>
@@ -644,6 +650,9 @@
     <t xml:space="preserve">seemd</t>
   </si>
   <si>
+    <t xml:space="preserve">seemed</t>
+  </si>
+  <si>
     <t xml:space="preserve">e3nL43uDxQgXl7FfA4N7sk0dVMR2DCa9YqmeRoAvlxF2fbcL-opwXsYh6p3Xhaen</t>
   </si>
   <si>
@@ -665,6 +674,9 @@
     <t xml:space="preserve">charatcer</t>
   </si>
   <si>
+    <t xml:space="preserve">character</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZoKzQHP_lSi6NuM-ZNFD5kTVNPDcimLL3nKY3QBYVxM8kAvXXqn8icDchxHaswKB</t>
   </si>
   <si>
@@ -680,6 +692,9 @@
     <t xml:space="preserve">intuned</t>
   </si>
   <si>
+    <t xml:space="preserve">in tune</t>
+  </si>
+  <si>
     <t xml:space="preserve">oXyP4Ieg6VZ5ZP2MEM-CUFV_9Ze0djOG7z_4EKUWgec4-V5kIgr1VKUbxtc_s5MK</t>
   </si>
   <si>
@@ -689,6 +704,9 @@
     <t xml:space="preserve">haf</t>
   </si>
   <si>
+    <t xml:space="preserve">had</t>
+  </si>
+  <si>
     <t xml:space="preserve">AYfR-Zd4pJo7vF3Ru6k6IIFBViGrRYwjiGRv62n5rPD2KRYztpRZdhDGMG8w-8af</t>
   </si>
   <si>
@@ -707,6 +725,9 @@
     <t xml:space="preserve">prostituye</t>
   </si>
   <si>
+    <t xml:space="preserve">prostitute</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ku8IThfsa7zDeHvLkb_idLs6oFlJxJKbvw1ZUGktZagVlQ1Cb0dV2pA2nhLpaFRN</t>
   </si>
   <si>
@@ -716,6 +737,9 @@
     <t xml:space="preserve">shewas</t>
   </si>
   <si>
+    <t xml:space="preserve">she was</t>
+  </si>
+  <si>
     <t xml:space="preserve">autist</t>
   </si>
   <si>
@@ -737,6 +761,9 @@
     <t xml:space="preserve">work.she</t>
   </si>
   <si>
+    <t xml:space="preserve">work. She</t>
+  </si>
+  <si>
     <t xml:space="preserve">_iV4EQLBqMnsGWVOCi_PkO0KHZ325Wea2MqhLy60tT1b6rkTYQu0uS-R2FIbseFy</t>
   </si>
   <si>
@@ -746,6 +773,9 @@
     <t xml:space="preserve">couragour</t>
   </si>
   <si>
+    <t xml:space="preserve">courageous</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ppnp2r2cx6r-3DZ2Wn9F3Mq43x2EvOVseUFgO5BBnIbUG5bL12o3YjapxLnfUjm6</t>
   </si>
   <si>
@@ -755,6 +785,9 @@
     <t xml:space="preserve">butt.the</t>
   </si>
   <si>
+    <t xml:space="preserve">butt. The</t>
+  </si>
+  <si>
     <t xml:space="preserve">FI1ET4NnNEeN1eBJDsIWoAKqFTD7A8XJRr5fTD4UchYwCtkN3MxaBb2DEqMUKiD6</t>
   </si>
   <si>
@@ -764,6 +797,9 @@
     <t xml:space="preserve">rof</t>
   </si>
   <si>
+    <t xml:space="preserve">of</t>
+  </si>
+  <si>
     <t xml:space="preserve">OsAvduAdqlrBQ7BUtoFMmlUMcqZAmlk3DPA3aPQ3kI4MrxSh-C44sh5PHnDtOG-U</t>
   </si>
   <si>
@@ -773,12 +809,21 @@
     <t xml:space="preserve">room.on</t>
   </si>
   <si>
+    <t xml:space="preserve">room. On</t>
+  </si>
+  <si>
     <t xml:space="preserve">friends.her's</t>
   </si>
   <si>
+    <t xml:space="preserve">friends. Her's</t>
+  </si>
+  <si>
     <t xml:space="preserve">face.she's</t>
   </si>
   <si>
+    <t xml:space="preserve">face. She's</t>
+  </si>
+  <si>
     <t xml:space="preserve">sOXpcIZTTUNW2DmnpF5_n9bkVSzLgl_kei_8lwkbREoxyWqeDWVfJzmiE9c65Xsq</t>
   </si>
   <si>
@@ -788,6 +833,9 @@
     <t xml:space="preserve">women.so</t>
   </si>
   <si>
+    <t xml:space="preserve">women. So</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pr_YssXXXonxKoUVUULFjKQoqWZ5nbf3c6HMjUv68pCcBHX7aNE6FohEsclyl8RX</t>
   </si>
   <si>
@@ -809,6 +857,9 @@
     <t xml:space="preserve">imposib</t>
   </si>
   <si>
+    <t xml:space="preserve">impossible</t>
+  </si>
+  <si>
     <t xml:space="preserve">le</t>
   </si>
   <si>
@@ -938,6 +989,9 @@
     <t xml:space="preserve">suprised</t>
   </si>
   <si>
+    <t xml:space="preserve">surprised</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forrest Gump is a loving and caring man with a big heart. He isn't the smartest man, but he always ends up getting through his problems somehow. He is a very good person, and it is easy for everyone he meets to like him.</t>
   </si>
   <si>
@@ -998,6 +1052,9 @@
     <t xml:space="preserve">taked</t>
   </si>
   <si>
+    <t xml:space="preserve">talked</t>
+  </si>
+  <si>
     <t xml:space="preserve">8VMHVBLPzNv88sEE4lO01Se8Hn31xsOPAPHB_5x3-d4kgHXGyLV1477dItS1GC6l</t>
   </si>
   <si>
@@ -1019,6 +1076,9 @@
     <t xml:space="preserve">wacth</t>
   </si>
   <si>
+    <t xml:space="preserve">watch</t>
+  </si>
+  <si>
     <t xml:space="preserve">He is honest, simple, determined, funny, and a soft-hearted individual.</t>
   </si>
   <si>
@@ -1040,6 +1100,9 @@
     <t xml:space="preserve">niativity</t>
   </si>
   <si>
+    <t xml:space="preserve">naivity</t>
+  </si>
+  <si>
     <t xml:space="preserve">twyP4oBp3dNAt1nf-uBDBwU-c_nyPu_HxTvZvVymJ1Fl8fK0f8xYeQxb9BYAUmiq</t>
   </si>
   <si>
@@ -1055,6 +1118,9 @@
     <t xml:space="preserve">rememeber</t>
   </si>
   <si>
+    <t xml:space="preserve">remember</t>
+  </si>
+  <si>
     <t xml:space="preserve">BgWfeCzmjW5vTfyR6z_W7KbsCkFLVbAsP2fNSjBCIlg99W9ynJI_m3uAu7sE8o1a</t>
   </si>
   <si>
@@ -1082,6 +1148,9 @@
     <t xml:space="preserve">unkown</t>
   </si>
   <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
     <t xml:space="preserve">7MCQuX0w_Gs-ubE69Dr90WaC7ZFFrSJfuYd-JdhgmiAr8MfXLIQWERyS1GStKIXO</t>
   </si>
   <si>
@@ -1121,6 +1190,9 @@
     <t xml:space="preserve">wasnt</t>
   </si>
   <si>
+    <t xml:space="preserve">wasn’t</t>
+  </si>
+  <si>
     <t xml:space="preserve">4glqX0bkfKnbIbMo7t7Vp-tgy5hnx4QHdeBTNpxDBwOYIlnupqC3nUIskVuinyq3</t>
   </si>
   <si>
@@ -1130,12 +1202,18 @@
     <t xml:space="preserve">sometype</t>
   </si>
   <si>
+    <t xml:space="preserve">some type</t>
+  </si>
+  <si>
     <t xml:space="preserve">The man was shuffeling through some papers on a desk. I dont know why he was doing that.</t>
   </si>
   <si>
     <t xml:space="preserve">shuffeling</t>
   </si>
   <si>
+    <t xml:space="preserve">shuffling</t>
+  </si>
+  <si>
     <t xml:space="preserve">He was somber, sad. Clearing out a desk, seemed like whoever's desk it was had died, and he needed to collect the items inside. Seemed to be hurried by the woman coming.</t>
   </si>
   <si>
@@ -1166,6 +1244,9 @@
     <t xml:space="preserve">folder.he</t>
   </si>
   <si>
+    <t xml:space="preserve">folder. He</t>
+  </si>
+  <si>
     <t xml:space="preserve">He seem to be moving or getting papers out of his office for a certain reason. He wasnt prepared to do this, but he did what he had to do.</t>
   </si>
   <si>
@@ -1178,6 +1259,9 @@
     <t xml:space="preserve">somethin</t>
   </si>
   <si>
+    <t xml:space="preserve">something</t>
+  </si>
+  <si>
     <t xml:space="preserve">I remember liking her mostly because she is in a city that I am pretty sure is St. Petersburg.</t>
   </si>
   <si>
@@ -1196,6 +1280,9 @@
     <t xml:space="preserve">markt</t>
   </si>
   <si>
+    <t xml:space="preserve">market</t>
+  </si>
+  <si>
     <t xml:space="preserve">nopuPIhOycpbHKZ7jcqV6ya9Axyro6lAiSVwNmSZJpQzAz64pcNnsSbBTnaqP42Q</t>
   </si>
   <si>
@@ -1223,6 +1310,9 @@
     <t xml:space="preserve">around.a</t>
   </si>
   <si>
+    <t xml:space="preserve">around a</t>
+  </si>
+  <si>
     <t xml:space="preserve">rCKtyq7ric66wIBJ-2ZAT_XwDMq-bNu92hZP8-d2MubxDGwGDmENappmSJW4fkek</t>
   </si>
   <si>
@@ -1253,6 +1343,9 @@
     <t xml:space="preserve">approachs</t>
   </si>
   <si>
+    <t xml:space="preserve">approaches</t>
+  </si>
+  <si>
     <t xml:space="preserve">ltxq8cxMJvQiMp6p5eXarzzZLUL0NtG1kVU-4F1YLwl6FpbkTy-3lcLTm2xIeldL</t>
   </si>
   <si>
@@ -1262,6 +1355,9 @@
     <t xml:space="preserve">qiote</t>
   </si>
   <si>
+    <t xml:space="preserve">quite</t>
+  </si>
+  <si>
     <t xml:space="preserve">unlikeable</t>
   </si>
   <si>
@@ -1304,6 +1400,9 @@
     <t xml:space="preserve">situations.the</t>
   </si>
   <si>
+    <t xml:space="preserve">situations. The</t>
+  </si>
+  <si>
     <t xml:space="preserve">bwyMiodSA33UcMocHBj3p2X05Pk42OvVlC-UaB8zTt_fqZoAhoz12NQ2qxYqwjfC</t>
   </si>
   <si>
@@ -1313,6 +1412,9 @@
     <t xml:space="preserve">dangerouse</t>
   </si>
   <si>
+    <t xml:space="preserve">dangereous</t>
+  </si>
+  <si>
     <t xml:space="preserve">c8RVnAktV5LVAh921i851CrjBbGZjR0nVRI046MXpjuqSt4FEQ91d4tBJA42gwBn</t>
   </si>
   <si>
@@ -1322,15 +1424,24 @@
     <t xml:space="preserve">wo.an</t>
   </si>
   <si>
+    <t xml:space="preserve">woman</t>
+  </si>
+  <si>
     <t xml:space="preserve">doi</t>
   </si>
   <si>
+    <t xml:space="preserve">doing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Came into the barh room with two other guys. She’s was angry about somthing</t>
   </si>
   <si>
     <t xml:space="preserve">barh</t>
   </si>
   <si>
+    <t xml:space="preserve">bath</t>
+  </si>
+  <si>
     <t xml:space="preserve">somthing</t>
   </si>
   <si>
@@ -1352,9 +1463,15 @@
     <t xml:space="preserve">movie.she</t>
   </si>
   <si>
+    <t xml:space="preserve">movie. She</t>
+  </si>
+  <si>
     <t xml:space="preserve">mans.because</t>
   </si>
   <si>
+    <t xml:space="preserve">men because</t>
+  </si>
+  <si>
     <t xml:space="preserve">wkGUc_Eb7BsoGzYwCUbGt1NunXlWa2-PitXPk0mEW2SL3_jzWyZIKrhJCiiNT7Xc</t>
   </si>
   <si>
@@ -1511,12 +1628,18 @@
     <t xml:space="preserve">fearul</t>
   </si>
   <si>
+    <t xml:space="preserve">fearful</t>
+  </si>
+  <si>
     <t xml:space="preserve">Such a sweet innocent girl trapped in a dangerous situation. Despite that there is real strength in her relationship with the hitman.They share a common bond between 2 different people.</t>
   </si>
   <si>
     <t xml:space="preserve">hitman.they</t>
   </si>
   <si>
+    <t xml:space="preserve">hitman. They</t>
+  </si>
+  <si>
     <t xml:space="preserve">I still remember her being whiny and clingy. I don't think she loved Leon like a father, but actually as a confused young adult being in love with someone. Still no favorable impression of her.</t>
   </si>
   <si>
@@ -1527,6 +1650,9 @@
   </si>
   <si>
     <t xml:space="preserve">nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">man</t>
   </si>
   <si>
     <t xml:space="preserve">She was sad because Leon didn't come the shoot with her.</t>
@@ -1608,9 +1734,15 @@
     <t xml:space="preserve">acknoweldges</t>
   </si>
   <si>
+    <t xml:space="preserve">acknowledges</t>
+  </si>
+  <si>
     <t xml:space="preserve">exsisted</t>
   </si>
   <si>
+    <t xml:space="preserve">existed</t>
+  </si>
+  <si>
     <t xml:space="preserve">He was a mentally disabled man who just found out that he has a son. He was at first really afraid and concerned that the child was also developmentally disabled (which he isn't) but quickly accepts it and goes to watch TV with his son.</t>
   </si>
   <si>
@@ -1632,6 +1764,9 @@
     <t xml:space="preserve">nuturing</t>
   </si>
   <si>
+    <t xml:space="preserve">nurturing</t>
+  </si>
+  <si>
     <t xml:space="preserve">FJy6fGuBkwnia38TXiWp2CdITIVgZwtYb39k_ranYn4QnhgoGHWWq2m4tYUn2BNy</t>
   </si>
   <si>
@@ -1641,15 +1776,24 @@
     <t xml:space="preserve">tink</t>
   </si>
   <si>
+    <t xml:space="preserve">think</t>
+  </si>
+  <si>
     <t xml:space="preserve">My opinion hasnt changed.  He's a simple guy that found out he's a dad. Even though he is autistic he was able to convey his feelings of surprise and wonder over this little human that looks and acts alot like him.</t>
   </si>
   <si>
     <t xml:space="preserve">hasnt</t>
   </si>
   <si>
+    <t xml:space="preserve">hasn’t</t>
+  </si>
+  <si>
     <t xml:space="preserve">alot</t>
   </si>
   <si>
+    <t xml:space="preserve">a lot</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forrest is a generally kind and benevolent man, as demonstrated by his concern for his son, who he just met.</t>
   </si>
   <si>
@@ -1689,6 +1833,9 @@
     <t xml:space="preserve">that'he'd</t>
   </si>
   <si>
+    <t xml:space="preserve">that he’d</t>
+  </si>
+  <si>
     <t xml:space="preserve">I dont know if it's changing or not I think i still feel the same</t>
   </si>
   <si>
@@ -1701,9 +1848,15 @@
     <t xml:space="preserve">gices</t>
   </si>
   <si>
+    <t xml:space="preserve">gives</t>
+  </si>
+  <si>
     <t xml:space="preserve">hecan't</t>
   </si>
   <si>
+    <t xml:space="preserve">he can’t</t>
+  </si>
+  <si>
     <t xml:space="preserve">I’m still very upset at how he treated his passenger in the clip that I saw.  I keep seeing it over and over in my head how he stopped the car, pulled the passenger out, threw his briefcase out, shoved a note in his passenger’s hand, and raised it to hail a bus before speeding off.  He doubled back in the end, but that doesn’t excuse or fix just how rude and unacceptable that was.</t>
   </si>
   <si>
@@ -1764,6 +1917,9 @@
     <t xml:space="preserve">wa</t>
   </si>
   <si>
+    <t xml:space="preserve">was</t>
+  </si>
+  <si>
     <t xml:space="preserve">He seemed a little frazzled and in a hurry to do something, but he seemed like an ok person.</t>
   </si>
   <si>
@@ -1797,6 +1953,9 @@
     <t xml:space="preserve">lookin</t>
   </si>
   <si>
+    <t xml:space="preserve">looking</t>
+  </si>
+  <si>
     <t xml:space="preserve">somehing</t>
   </si>
   <si>
@@ -1809,6 +1968,9 @@
     <t xml:space="preserve">srroundings</t>
   </si>
   <si>
+    <t xml:space="preserve">surroundings</t>
+  </si>
+  <si>
     <t xml:space="preserve">4PUtGR7EPP2WJYtHsxE9yIfj836HyKRYHlc_O3cmxaA0n7b0h1UX9uAUxAWJsCNN</t>
   </si>
   <si>
@@ -1818,6 +1980,9 @@
     <t xml:space="preserve">lol</t>
   </si>
   <si>
+    <t xml:space="preserve">lough out loud</t>
+  </si>
+  <si>
     <t xml:space="preserve">EpO5fY3Sfq4XMEpGKPLRMRpF2MHbn3hfgMnulxUqYB5X3UtiwXxvIjeiPFAeThvU</t>
   </si>
   <si>
@@ -1827,6 +1992,9 @@
     <t xml:space="preserve">colllected</t>
   </si>
   <si>
+    <t xml:space="preserve">collected</t>
+  </si>
+  <si>
     <t xml:space="preserve">e_0yXA-glNyq7GXvwShTtdB6q_r3DaYKlquXpAfPYFrtiKkeH3Yr3StNAvCIbb09</t>
   </si>
   <si>
@@ -1836,6 +2004,9 @@
     <t xml:space="preserve">where.she</t>
   </si>
   <si>
+    <t xml:space="preserve">where. She</t>
+  </si>
+  <si>
     <t xml:space="preserve">HVkqXzoGdGkSIIYWtZ7sICfJbIUlU2DHFEZMKtixhXWLQQFCY2QFfw1D2eEfUVkg</t>
   </si>
   <si>
@@ -1869,6 +2040,9 @@
     <t xml:space="preserve">determinine</t>
   </si>
   <si>
+    <t xml:space="preserve">determine</t>
+  </si>
+  <si>
     <t xml:space="preserve">This young girl seemed fearless, proud and determined. She seemed like the kind of person who doesnt let anyone get in her way to accomplish anything.</t>
   </si>
   <si>
@@ -1881,6 +2055,9 @@
     <t xml:space="preserve">neoghborhood</t>
   </si>
   <si>
+    <t xml:space="preserve">neighborhood</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quietish man, who was in the process of losing someone very important to him.  I think he had some sort of magical property based on knowing the girl was hurt right as it happened.  He didn't give off an aura of strength, but did seem outdoorsy.  Maybe even a little weak.</t>
   </si>
   <si>
@@ -1893,6 +2070,9 @@
     <t xml:space="preserve">wiyh</t>
   </si>
   <si>
+    <t xml:space="preserve">with</t>
+  </si>
+  <si>
     <t xml:space="preserve">he is a character in the film that has integrity and cares deeply about the Meg Ryan character</t>
   </si>
   <si>
@@ -1923,6 +2103,9 @@
     <t xml:space="preserve">incontrol</t>
   </si>
   <si>
+    <t xml:space="preserve">in control</t>
+  </si>
+  <si>
     <t xml:space="preserve">O6OQHINHwn4WY79-qXiduNKnjRJIJDVFoiwSiftJ0ZIMXuNMjgHdidUUGQIzd0i2</t>
   </si>
   <si>
@@ -1944,24 +2127,36 @@
     <t xml:space="preserve">wearinng</t>
   </si>
   <si>
+    <t xml:space="preserve">wearing</t>
+  </si>
+  <si>
     <t xml:space="preserve">I see this women as a desperate soul.She is brave to pursue her line of work but reckless at times.</t>
   </si>
   <si>
     <t xml:space="preserve">soul.she</t>
   </si>
   <si>
+    <t xml:space="preserve">soul. She</t>
+  </si>
+  <si>
     <t xml:space="preserve">She is a strong women trying her best at getting what she wants and stang up for herself</t>
   </si>
   <si>
     <t xml:space="preserve">stang</t>
   </si>
   <si>
+    <t xml:space="preserve">stand</t>
+  </si>
+  <si>
     <t xml:space="preserve">i believed she was a woman down on her luck and resorting to prostitution for money.  She had things she still wouldnt do but the man took it upon himself to take what he wanted from her and abused her.  She was terrified.</t>
   </si>
   <si>
     <t xml:space="preserve">wouldnt</t>
   </si>
   <si>
+    <t xml:space="preserve">wouldn’t</t>
+  </si>
+  <si>
     <t xml:space="preserve">zf5Lp_PzDig_9ghA-1wHj0sqRiPlpEn37HTQ60ZBIAjDMEDyfs9pj3ifUpmuo-hC</t>
   </si>
   <si>
@@ -1971,21 +2166,33 @@
     <t xml:space="preserve">aliving</t>
   </si>
   <si>
+    <t xml:space="preserve">a living</t>
+  </si>
+  <si>
     <t xml:space="preserve">she was very bold character. because in this movie she was affect by some guys.then she was argue with him.so that guys attack cruel her.</t>
   </si>
   <si>
     <t xml:space="preserve">guys.then</t>
   </si>
   <si>
+    <t xml:space="preserve">guys. Then</t>
+  </si>
+  <si>
     <t xml:space="preserve">him.so</t>
   </si>
   <si>
+    <t xml:space="preserve">him. So</t>
+  </si>
+  <si>
     <t xml:space="preserve">very intresting character in this movie</t>
   </si>
   <si>
     <t xml:space="preserve">intresting</t>
   </si>
   <si>
+    <t xml:space="preserve">interesting</t>
+  </si>
+  <si>
     <t xml:space="preserve">BrNMNP4VayD7nVm2D7ULJw8E9u-ppM4Nv2Rd3YtG3s1dQ7qdT06Twm0q3XZEZLTU</t>
   </si>
   <si>
@@ -2004,6 +2211,9 @@
     <t xml:space="preserve">intobad</t>
   </si>
   <si>
+    <t xml:space="preserve">into bad</t>
+  </si>
+  <si>
     <t xml:space="preserve">She was a scared little girl who was as very worried for Leon . She didn’t want him to die</t>
   </si>
   <si>
@@ -2025,6 +2235,9 @@
     <t xml:space="preserve">srrong</t>
   </si>
   <si>
+    <t xml:space="preserve">strong</t>
+  </si>
+  <si>
     <t xml:space="preserve">RKhcpnoTKIu8BbrlIqXG_T69QlIr961Cg0hoFekkcIcTIZewjg9WAeiHOt1yVBs6</t>
   </si>
   <si>
@@ -2034,6 +2247,9 @@
     <t xml:space="preserve">pusuers</t>
   </si>
   <si>
+    <t xml:space="preserve">pursuers</t>
+  </si>
+  <si>
     <t xml:space="preserve">1nKHwKvbs6rJeFEXsmNakiu2N5QEL-YdWtqEUlgtRpqLAzslqqqz_RaFMwNy9jTa</t>
   </si>
   <si>
@@ -2043,6 +2259,9 @@
     <t xml:space="preserve">villians</t>
   </si>
   <si>
+    <t xml:space="preserve">villans</t>
+  </si>
+  <si>
     <t xml:space="preserve">She was worried about Leon about no fitting through the hole but Leon meant it for her and not for him. Even so she was still worried for Leon.</t>
   </si>
   <si>
@@ -2055,9 +2274,15 @@
     <t xml:space="preserve">trasnmit</t>
   </si>
   <si>
+    <t xml:space="preserve">transmit</t>
+  </si>
+  <si>
     <t xml:space="preserve">empathty</t>
   </si>
   <si>
+    <t xml:space="preserve">empathy</t>
+  </si>
+  <si>
     <t xml:space="preserve">the man was inquisitive. he asked who the boy was. the woman replied that his name was the same as the man's, and rather quickly the man realized that he was the father. he got scared and stepped back. but quickly again regained the courage and went to watch tv with the boy.</t>
   </si>
   <si>
@@ -2121,6 +2346,9 @@
     <t xml:space="preserve">maked</t>
   </si>
   <si>
+    <t xml:space="preserve">made</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forrest was suprised to find he is  a father.</t>
   </si>
   <si>
@@ -2145,9 +2373,15 @@
     <t xml:space="preserve">shoeed</t>
   </si>
   <si>
+    <t xml:space="preserve">showed</t>
+  </si>
+  <si>
     <t xml:space="preserve">standup</t>
   </si>
   <si>
+    <t xml:space="preserve">stand up</t>
+  </si>
+  <si>
     <t xml:space="preserve">gvXOqnxUFAkJyTRhDWJDqx7QMSofmJHZQI62egv5hryBWv8F8onkOoffVedhblwb</t>
   </si>
   <si>
@@ -2163,6 +2397,9 @@
     <t xml:space="preserve">anyonre</t>
   </si>
   <si>
+    <t xml:space="preserve">anyone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Harry had an autistic adult son with whom he was aggravated with. He drove his son to a remote bus stop in order to be rid of him for good. The autistic son was alone, sad, and confused standing at the bus stop in the pouring rain. Harry had a last minute change of heart due to guilt and turned his car around to come back for his son. They shared a joyful embrace  upon Harry's return. I think Harry is a terrible person for doing that to his son.</t>
   </si>
   <si>
@@ -2205,6 +2442,9 @@
     <t xml:space="preserve">heis</t>
   </si>
   <si>
+    <t xml:space="preserve">he is</t>
+  </si>
+  <si>
     <t xml:space="preserve">XzmaFXJqaVtGWt2Oa9TZKtO51Ks8eeCm91VrsF3UxmtYDggd9k-6Q4gO8VhXLL2-</t>
   </si>
   <si>
@@ -2232,6 +2472,9 @@
     <t xml:space="preserve">Shes still shopping that market. lol</t>
   </si>
   <si>
+    <t xml:space="preserve">laugh out loud</t>
+  </si>
+  <si>
     <t xml:space="preserve">tTFlQqD6_ghO55-VH6_WbZzdk8VEIrCGODklw7iNZTYdUBxIDcGzKs8YdllcVY8Z</t>
   </si>
   <si>
@@ -2247,6 +2490,9 @@
     <t xml:space="preserve">aggitated</t>
   </si>
   <si>
+    <t xml:space="preserve">agitated</t>
+  </si>
+  <si>
     <t xml:space="preserve">4PvSJSf1E_ydhp9n21JJUKrXR-D0TeEzQ8-LaCQCLyHFMNdV0gi6bdbmgCUQJWQf</t>
   </si>
   <si>
@@ -2254,6 +2500,9 @@
   </si>
   <si>
     <t xml:space="preserve">clipp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clip</t>
   </si>
   <si>
     <t xml:space="preserve">FYI: Getting real old asking about this chick who didn't do anything. 
@@ -2272,6 +2521,9 @@
     <t xml:space="preserve">thoguht</t>
   </si>
   <si>
+    <t xml:space="preserve">thought</t>
+  </si>
+  <si>
     <t xml:space="preserve">r7hoa50hdmjbAuWcTfrmuMd6o2PYWn-b6SS0vmCpkO0-ANptFE_RGzl580i1H9f-</t>
   </si>
   <si>
@@ -2311,6 +2563,9 @@
     <t xml:space="preserve">dieing</t>
   </si>
   <si>
+    <t xml:space="preserve">dying</t>
+  </si>
+  <si>
     <t xml:space="preserve">the character played by nicholas cage is a man on integrity and honesty who cares deeply about the welfare of others</t>
   </si>
   <si>
@@ -2347,12 +2602,18 @@
     <t xml:space="preserve">lifestyle.she</t>
   </si>
   <si>
+    <t xml:space="preserve">lifestyle. She</t>
+  </si>
+  <si>
     <t xml:space="preserve">She was a fiesty prostitute who was doing what she had to do to survive. She never expected the boys to beat her. She was pretty matter of fact about what she was there to do.</t>
   </si>
   <si>
     <t xml:space="preserve">fiesty</t>
   </si>
   <si>
+    <t xml:space="preserve">feisty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is been through alot in life and is just to keep going</t>
   </si>
   <si>
@@ -2380,15 +2641,24 @@
     <t xml:space="preserve">harrassing</t>
   </si>
   <si>
+    <t xml:space="preserve">harassing</t>
+  </si>
+  <si>
     <t xml:space="preserve">abuaed</t>
   </si>
   <si>
+    <t xml:space="preserve">abandoned</t>
+  </si>
+  <si>
     <t xml:space="preserve">I recall not liking her in the beginning because she was playing the role of a prostitute. However the situation escalated as she attempted to leave and was beaten and raped instead. It was awful to watch and printed the image in my head with the last scene of hee staring out into nothing.</t>
   </si>
   <si>
     <t xml:space="preserve">hee</t>
   </si>
   <si>
+    <t xml:space="preserve">he</t>
+  </si>
+  <si>
     <t xml:space="preserve">fC1jsnCYnVnTSjmP0EIbVUXWCmJrta1yRLaDX_CSIPBp__4fSFjqumkjRg4rk8Wk</t>
   </si>
   <si>
@@ -2434,6 +2704,9 @@
     <t xml:space="preserve">produved</t>
   </si>
   <si>
+    <t xml:space="preserve">produced</t>
+  </si>
+  <si>
     <t xml:space="preserve">She was scared and worried for Leon not being able to make it through the hole. Even though it wasn't meant for Leon she was still caring for him in a dangerous situation.</t>
   </si>
   <si>
@@ -2444,6 +2717,9 @@
   </si>
   <si>
     <t xml:space="preserve">ahold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hold</t>
   </si>
 </sst>
 </file>
@@ -2551,8 +2827,8 @@
   </sheetPr>
   <dimension ref="A1:F492"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A469" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F493" activeCellId="0" sqref="F493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3947,6 +4223,9 @@
       <c r="E78" s="0" t="s">
         <v>137</v>
       </c>
+      <c r="F78" s="0" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
@@ -3964,70 +4243,73 @@
       <c r="E79" s="0" t="s">
         <v>188</v>
       </c>
+      <c r="F79" s="0" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>157</v>
@@ -4035,67 +4317,73 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>75</v>
@@ -4103,424 +4391,475 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="F94" s="0" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="F95" s="0" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>243</v>
+        <v>253</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>246</v>
+        <v>257</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>254</v>
+        <v>269</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>261</v>
+        <v>277</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="E112" s="0" t="s">
         <v>75</v>
@@ -4528,16 +4867,16 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="E113" s="0" t="s">
         <v>9</v>
@@ -4545,101 +4884,101 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>9</v>
@@ -4647,75 +4986,81 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D121" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E121" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="F122" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="F123" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>7</v>
@@ -4724,7 +5069,7 @@
         <v>2</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>26</v>
@@ -4741,7 +5086,7 @@
         <v>2</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>12</v>
@@ -4758,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>12</v>
@@ -4775,7 +5120,7 @@
         <v>2</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>13</v>
@@ -4783,7 +5128,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>7</v>
@@ -4792,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>25</v>
@@ -4800,7 +5145,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>7</v>
@@ -4809,15 +5154,15 @@
         <v>2</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>7</v>
@@ -4826,7 +5171,7 @@
         <v>2</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>9</v>
@@ -4843,7 +5188,7 @@
         <v>2</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>12</v>
@@ -4860,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="E132" s="0" t="s">
         <v>26</v>
@@ -4877,7 +5222,7 @@
         <v>2</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>26</v>
@@ -4885,7 +5230,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>7</v>
@@ -4894,10 +5239,13 @@
         <v>2</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>304</v>
+        <v>321</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4911,7 +5259,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="E135" s="0" t="s">
         <v>12</v>
@@ -4928,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>13</v>
@@ -4945,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="E137" s="0" t="s">
         <v>26</v>
@@ -4962,7 +5310,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>12</v>
@@ -4979,7 +5327,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>9</v>
@@ -4987,7 +5335,7 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>7</v>
@@ -4996,7 +5344,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>26</v>
@@ -5013,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>12</v>
@@ -5030,7 +5378,7 @@
         <v>2</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E142" s="0" t="s">
         <v>13</v>
@@ -5047,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E143" s="0" t="s">
         <v>60</v>
@@ -5055,7 +5403,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>7</v>
@@ -5064,15 +5412,15 @@
         <v>2</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>7</v>
@@ -5081,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="E145" s="0" t="s">
         <v>26</v>
@@ -5089,7 +5437,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>7</v>
@@ -5098,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="E146" s="0" t="s">
         <v>12</v>
@@ -5106,7 +5454,7 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>7</v>
@@ -5115,10 +5463,10 @@
         <v>2</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5132,7 +5480,7 @@
         <v>2</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="E148" s="0" t="s">
         <v>26</v>
@@ -5140,7 +5488,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>7</v>
@@ -5149,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="E149" s="0" t="s">
         <v>25</v>
@@ -5166,15 +5514,15 @@
         <v>2</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>7</v>
@@ -5183,15 +5531,18 @@
         <v>2</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>324</v>
+        <v>342</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>7</v>
@@ -5200,7 +5551,7 @@
         <v>2</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="E152" s="0" t="s">
         <v>13</v>
@@ -5208,7 +5559,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>7</v>
@@ -5217,7 +5568,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="E153" s="0" t="s">
         <v>26</v>
@@ -5225,7 +5576,7 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>7</v>
@@ -5234,7 +5585,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="E154" s="0" t="s">
         <v>26</v>
@@ -5242,7 +5593,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>7</v>
@@ -5251,15 +5602,18 @@
         <v>2</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>331</v>
+        <v>350</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>7</v>
@@ -5268,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="E156" s="0" t="s">
         <v>26</v>
@@ -5285,7 +5639,7 @@
         <v>2</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E157" s="0" t="s">
         <v>9</v>
@@ -5302,7 +5656,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="E158" s="0" t="s">
         <v>12</v>
@@ -5319,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>13</v>
@@ -5336,7 +5690,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>12</v>
@@ -5353,7 +5707,7 @@
         <v>2</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E161" s="0" t="s">
         <v>12</v>
@@ -5361,7 +5715,7 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>7</v>
@@ -5370,7 +5724,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E162" s="0" t="s">
         <v>12</v>
@@ -5387,7 +5741,7 @@
         <v>2</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="E163" s="0" t="s">
         <v>60</v>
@@ -5404,15 +5758,18 @@
         <v>2</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>338</v>
+        <v>358</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>68</v>
@@ -5421,15 +5778,15 @@
         <v>2</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>68</v>
@@ -5438,15 +5795,18 @@
         <v>2</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>343</v>
+        <v>364</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>68</v>
@@ -5455,10 +5815,10 @@
         <v>2</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="E168" s="0" t="s">
         <v>84</v>
@@ -5480,7 +5840,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>68</v>
@@ -5489,7 +5849,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>119</v>
@@ -5506,10 +5866,10 @@
         <v>2</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,10 +5883,13 @@
         <v>2</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>352</v>
+        <v>374</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,7 +5903,7 @@
         <v>2</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="E172" s="0" t="s">
         <v>78</v>
@@ -5548,7 +5911,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>68</v>
@@ -5557,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="E173" s="0" t="s">
         <v>84</v>
@@ -5565,7 +5928,7 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>68</v>
@@ -5574,7 +5937,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="E174" s="0" t="s">
         <v>99</v>
@@ -5591,7 +5954,7 @@
         <v>2</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="E175" s="0" t="s">
         <v>99</v>
@@ -5599,7 +5962,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>68</v>
@@ -5608,15 +5971,15 @@
         <v>2</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>68</v>
@@ -5625,7 +5988,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="E177" s="0" t="s">
         <v>70</v>
@@ -5633,7 +5996,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>68</v>
@@ -5642,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="E178" s="0" t="s">
         <v>70</v>
@@ -5650,7 +6013,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>113</v>
@@ -5659,15 +6022,18 @@
         <v>2</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>365</v>
+        <v>388</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>113</v>
@@ -5676,10 +6042,13 @@
         <v>2</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>368</v>
+        <v>392</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5693,10 +6062,13 @@
         <v>2</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>370</v>
+        <v>395</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,10 +6082,13 @@
         <v>2</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="E182" s="0" t="s">
         <v>100</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,15 +6102,15 @@
         <v>2</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>113</v>
@@ -5744,7 +6119,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="E184" s="0" t="s">
         <v>25</v>
@@ -5752,7 +6127,7 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>113</v>
@@ -5761,7 +6136,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="E185" s="0" t="s">
         <v>75</v>
@@ -5778,15 +6153,18 @@
         <v>2</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="E186" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="F186" s="0" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>113</v>
@@ -5795,10 +6173,13 @@
         <v>2</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>380</v>
+        <v>406</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5812,15 +6193,18 @@
         <v>2</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>365</v>
+        <v>388</v>
+      </c>
+      <c r="F188" s="0" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>113</v>
@@ -5829,10 +6213,13 @@
         <v>2</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>384</v>
+        <v>411</v>
+      </c>
+      <c r="F189" s="0" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="E190" s="0" t="s">
         <v>146</v>
@@ -5854,7 +6241,7 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B191" s="0" t="s">
         <v>144</v>
@@ -5863,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>75</v>
@@ -5871,7 +6258,7 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>144</v>
@@ -5880,15 +6267,18 @@
         <v>2</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>390</v>
+        <v>418</v>
+      </c>
+      <c r="F192" s="0" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>144</v>
@@ -5897,15 +6287,18 @@
         <v>2</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="E193" s="0" t="s">
         <v>137</v>
       </c>
+      <c r="F193" s="0" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>144</v>
@@ -5914,10 +6307,13 @@
         <v>2</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="E194" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="F194" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,15 +6327,15 @@
         <v>2</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>144</v>
@@ -5948,15 +6344,18 @@
         <v>2</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>399</v>
+        <v>428</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>159</v>
@@ -5965,15 +6364,15 @@
         <v>2</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>159</v>
@@ -5982,15 +6381,15 @@
         <v>2</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>159</v>
@@ -5999,10 +6398,10 @@
         <v>2</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,10 +6415,10 @@
         <v>2</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6033,10 +6432,10 @@
         <v>2</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6050,10 +6449,13 @@
         <v>2</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>409</v>
+        <v>439</v>
+      </c>
+      <c r="F202" s="0" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,7 +6469,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="E203" s="0" t="s">
         <v>161</v>
@@ -6075,7 +6477,7 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>159</v>
@@ -6084,15 +6486,18 @@
         <v>2</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>412</v>
+        <v>443</v>
+      </c>
+      <c r="F204" s="0" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="B205" s="0" t="s">
         <v>159</v>
@@ -6101,15 +6506,15 @@
         <v>2</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>159</v>
@@ -6118,15 +6523,15 @@
         <v>2</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>159</v>
@@ -6135,245 +6540,266 @@
         <v>2</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>422</v>
+        <v>454</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>426</v>
+        <v>458</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>429</v>
+        <v>462</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>432</v>
+        <v>466</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C217" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>433</v>
+        <v>468</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C218" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>435</v>
+        <v>471</v>
+      </c>
+      <c r="F218" s="0" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>436</v>
+        <v>473</v>
+      </c>
+      <c r="F219" s="0" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C221" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="E221" s="0" t="s">
         <v>16</v>
@@ -6381,67 +6807,73 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>442</v>
+        <v>479</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C223" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>443</v>
+        <v>481</v>
+      </c>
+      <c r="F223" s="0" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C224" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="E225" s="0" t="s">
         <v>84</v>
@@ -6449,16 +6881,16 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C226" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="E226" s="0" t="s">
         <v>75</v>
@@ -6466,526 +6898,526 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C227" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C228" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C229" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C230" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C244" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C246" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C249" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C250" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C251" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C252" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C253" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C254" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C255" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C256" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C257" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E257" s="0" t="s">
         <v>78</v>
@@ -6993,67 +7425,67 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C258" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C259" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C260" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C261" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E261" s="0" t="s">
         <v>78</v>
@@ -7061,135 +7493,135 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C262" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C263" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C264" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C265" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C266" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C267" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C268" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C269" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E269" s="0" t="s">
         <v>78</v>
@@ -7197,364 +7629,373 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C270" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C271" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C272" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C273" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C274" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C275" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C276" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C277" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C278" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C279" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C280" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C281" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C282" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C283" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>495</v>
+        <v>534</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C284" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>497</v>
+        <v>537</v>
+      </c>
+      <c r="F284" s="0" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C285" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C286" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>501</v>
+        <v>542</v>
+      </c>
+      <c r="F286" s="0" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C287" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C288" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>505</v>
+        <v>547</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C289" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>506</v>
+        <v>548</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C290" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>506</v>
+        <v>548</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B291" s="0" t="s">
         <v>7</v>
@@ -7563,7 +8004,7 @@
         <v>3</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="E291" s="0" t="s">
         <v>12</v>
@@ -7571,7 +8012,7 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B292" s="0" t="s">
         <v>7</v>
@@ -7580,7 +8021,7 @@
         <v>3</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="E292" s="0" t="s">
         <v>26</v>
@@ -7597,7 +8038,7 @@
         <v>3</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="E293" s="0" t="s">
         <v>12</v>
@@ -7605,7 +8046,7 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>7</v>
@@ -7614,7 +8055,7 @@
         <v>3</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="E294" s="0" t="s">
         <v>12</v>
@@ -7622,7 +8063,7 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="B295" s="0" t="s">
         <v>7</v>
@@ -7631,15 +8072,15 @@
         <v>3</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>511</v>
+        <v>553</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="B296" s="0" t="s">
         <v>7</v>
@@ -7648,7 +8089,7 @@
         <v>3</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="E296" s="0" t="s">
         <v>75</v>
@@ -7656,7 +8097,7 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="B297" s="0" t="s">
         <v>7</v>
@@ -7665,15 +8106,15 @@
         <v>3</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>511</v>
+        <v>553</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="B298" s="0" t="s">
         <v>7</v>
@@ -7682,7 +8123,7 @@
         <v>3</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="E298" s="0" t="s">
         <v>13</v>
@@ -7690,7 +8131,7 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="B299" s="0" t="s">
         <v>7</v>
@@ -7699,7 +8140,7 @@
         <v>3</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="E299" s="0" t="s">
         <v>75</v>
@@ -7707,7 +8148,7 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="B300" s="0" t="s">
         <v>7</v>
@@ -7716,10 +8157,10 @@
         <v>3</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7733,7 +8174,7 @@
         <v>3</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="E301" s="0" t="s">
         <v>12</v>
@@ -7750,7 +8191,7 @@
         <v>3</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="E302" s="0" t="s">
         <v>13</v>
@@ -7767,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="E303" s="0" t="s">
         <v>9</v>
@@ -7775,7 +8216,7 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="B304" s="0" t="s">
         <v>7</v>
@@ -7784,7 +8225,7 @@
         <v>3</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="E304" s="0" t="s">
         <v>12</v>
@@ -7801,7 +8242,7 @@
         <v>3</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="E305" s="0" t="s">
         <v>12</v>
@@ -7818,7 +8259,7 @@
         <v>3</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="E306" s="0" t="s">
         <v>13</v>
@@ -7826,7 +8267,7 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B307" s="0" t="s">
         <v>7</v>
@@ -7835,7 +8276,7 @@
         <v>3</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="E307" s="0" t="s">
         <v>26</v>
@@ -7852,7 +8293,7 @@
         <v>3</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="E308" s="0" t="s">
         <v>12</v>
@@ -7869,7 +8310,7 @@
         <v>3</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="E309" s="0" t="s">
         <v>13</v>
@@ -7877,7 +8318,7 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="B310" s="0" t="s">
         <v>7</v>
@@ -7886,15 +8327,18 @@
         <v>3</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>522</v>
+        <v>564</v>
       </c>
       <c r="E310" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="F310" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="B311" s="0" t="s">
         <v>7</v>
@@ -7903,15 +8347,15 @@
         <v>3</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B312" s="0" t="s">
         <v>7</v>
@@ -7920,7 +8364,7 @@
         <v>3</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="E312" s="0" t="s">
         <v>12</v>
@@ -7928,7 +8372,7 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B313" s="0" t="s">
         <v>7</v>
@@ -7937,7 +8381,7 @@
         <v>3</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="E313" s="0" t="s">
         <v>12</v>
@@ -7945,7 +8389,7 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B314" s="0" t="s">
         <v>7</v>
@@ -7954,15 +8398,18 @@
         <v>3</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>527</v>
+        <v>569</v>
+      </c>
+      <c r="F314" s="0" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B315" s="0" t="s">
         <v>7</v>
@@ -7971,10 +8418,13 @@
         <v>3</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>528</v>
+        <v>571</v>
+      </c>
+      <c r="F315" s="0" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7988,7 +8438,7 @@
         <v>3</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="E316" s="0" t="s">
         <v>26</v>
@@ -7996,7 +8446,7 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B317" s="0" t="s">
         <v>7</v>
@@ -8005,10 +8455,10 @@
         <v>3</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8022,7 +8472,7 @@
         <v>3</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="E318" s="0" t="s">
         <v>12</v>
@@ -8030,7 +8480,7 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="B319" s="0" t="s">
         <v>7</v>
@@ -8039,15 +8489,18 @@
         <v>3</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>535</v>
+        <v>579</v>
+      </c>
+      <c r="F319" s="0" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>536</v>
+        <v>581</v>
       </c>
       <c r="B320" s="0" t="s">
         <v>7</v>
@@ -8056,15 +8509,18 @@
         <v>3</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>537</v>
+        <v>582</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>538</v>
+        <v>583</v>
+      </c>
+      <c r="F320" s="0" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B321" s="0" t="s">
         <v>7</v>
@@ -8073,15 +8529,18 @@
         <v>3</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>540</v>
+        <v>586</v>
+      </c>
+      <c r="F321" s="0" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B322" s="0" t="s">
         <v>7</v>
@@ -8090,10 +8549,13 @@
         <v>3</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>541</v>
+        <v>588</v>
+      </c>
+      <c r="F322" s="0" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8107,7 +8569,7 @@
         <v>3</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="E323" s="0" t="s">
         <v>12</v>
@@ -8115,7 +8577,7 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="B324" s="0" t="s">
         <v>7</v>
@@ -8124,10 +8586,10 @@
         <v>3</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>545</v>
+        <v>593</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8141,7 +8603,7 @@
         <v>3</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="E325" s="0" t="s">
         <v>60</v>
@@ -8158,7 +8620,7 @@
         <v>3</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="E326" s="0" t="s">
         <v>12</v>
@@ -8175,7 +8637,7 @@
         <v>3</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="E327" s="0" t="s">
         <v>13</v>
@@ -8192,7 +8654,7 @@
         <v>3</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="E328" s="0" t="s">
         <v>12</v>
@@ -8209,7 +8671,7 @@
         <v>3</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="E329" s="0" t="s">
         <v>12</v>
@@ -8226,7 +8688,7 @@
         <v>3</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="E330" s="0" t="s">
         <v>12</v>
@@ -8234,7 +8696,7 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="B331" s="0" t="s">
         <v>68</v>
@@ -8243,7 +8705,7 @@
         <v>3</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
       <c r="E331" s="0" t="s">
         <v>70</v>
@@ -8251,7 +8713,7 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="B332" s="0" t="s">
         <v>68</v>
@@ -8260,15 +8722,15 @@
         <v>3</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>551</v>
+        <v>599</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="B333" s="0" t="s">
         <v>68</v>
@@ -8277,15 +8739,18 @@
         <v>3</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>553</v>
+        <v>601</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>554</v>
+        <v>602</v>
+      </c>
+      <c r="F333" s="0" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B334" s="0" t="s">
         <v>68</v>
@@ -8294,15 +8759,18 @@
         <v>3</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>555</v>
+        <v>604</v>
       </c>
       <c r="E334" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="F334" s="0" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="B335" s="0" t="s">
         <v>68</v>
@@ -8311,15 +8779,18 @@
         <v>3</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>557</v>
+        <v>606</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>558</v>
+        <v>607</v>
+      </c>
+      <c r="F335" s="0" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="B336" s="0" t="s">
         <v>68</v>
@@ -8328,10 +8799,13 @@
         <v>3</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>557</v>
+        <v>606</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>559</v>
+        <v>609</v>
+      </c>
+      <c r="F336" s="0" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8345,7 +8819,7 @@
         <v>3</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>560</v>
+        <v>611</v>
       </c>
       <c r="E337" s="0" t="s">
         <v>84</v>
@@ -8362,7 +8836,7 @@
         <v>3</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>561</v>
+        <v>612</v>
       </c>
       <c r="E338" s="0" t="s">
         <v>9</v>
@@ -8370,7 +8844,7 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="B339" s="0" t="s">
         <v>68</v>
@@ -8379,7 +8853,7 @@
         <v>3</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>562</v>
+        <v>613</v>
       </c>
       <c r="E339" s="0" t="s">
         <v>84</v>
@@ -8387,7 +8861,7 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>563</v>
+        <v>614</v>
       </c>
       <c r="B340" s="0" t="s">
         <v>68</v>
@@ -8396,15 +8870,15 @@
         <v>3</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>564</v>
+        <v>615</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>565</v>
+        <v>616</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="B341" s="0" t="s">
         <v>68</v>
@@ -8413,10 +8887,10 @@
         <v>3</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>566</v>
+        <v>617</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8430,7 +8904,7 @@
         <v>3</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>567</v>
+        <v>618</v>
       </c>
       <c r="E342" s="0" t="s">
         <v>9</v>
@@ -8438,7 +8912,7 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="B343" s="0" t="s">
         <v>113</v>
@@ -8447,15 +8921,15 @@
         <v>3</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>569</v>
+        <v>620</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
       <c r="B344" s="0" t="s">
         <v>113</v>
@@ -8464,10 +8938,10 @@
         <v>3</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>572</v>
+        <v>623</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8481,15 +8955,18 @@
         <v>3</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>574</v>
+        <v>625</v>
       </c>
       <c r="E345" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="F345" s="0" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>575</v>
+        <v>626</v>
       </c>
       <c r="B346" s="0" t="s">
         <v>113</v>
@@ -8498,7 +8975,7 @@
         <v>3</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>576</v>
+        <v>627</v>
       </c>
       <c r="E346" s="0" t="s">
         <v>75</v>
@@ -8506,7 +8983,7 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>577</v>
+        <v>628</v>
       </c>
       <c r="B347" s="0" t="s">
         <v>113</v>
@@ -8515,15 +8992,18 @@
         <v>3</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>579</v>
+        <v>630</v>
+      </c>
+      <c r="F347" s="0" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="B348" s="0" t="s">
         <v>113</v>
@@ -8532,7 +9012,7 @@
         <v>3</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>580</v>
+        <v>632</v>
       </c>
       <c r="E348" s="0" t="s">
         <v>25</v>
@@ -8540,7 +9020,7 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>581</v>
+        <v>633</v>
       </c>
       <c r="B349" s="0" t="s">
         <v>113</v>
@@ -8549,7 +9029,7 @@
         <v>3</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>582</v>
+        <v>634</v>
       </c>
       <c r="E349" s="0" t="s">
         <v>75</v>
@@ -8566,7 +9046,7 @@
         <v>3</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>583</v>
+        <v>635</v>
       </c>
       <c r="E350" s="0" t="s">
         <v>122</v>
@@ -8574,7 +9054,7 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>584</v>
+        <v>636</v>
       </c>
       <c r="B351" s="0" t="s">
         <v>113</v>
@@ -8583,15 +9063,18 @@
         <v>3</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>585</v>
+        <v>637</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>365</v>
+        <v>388</v>
+      </c>
+      <c r="F351" s="0" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>586</v>
+        <v>638</v>
       </c>
       <c r="B352" s="0" t="s">
         <v>144</v>
@@ -8600,7 +9083,7 @@
         <v>3</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>587</v>
+        <v>639</v>
       </c>
       <c r="E352" s="0" t="s">
         <v>157</v>
@@ -8608,7 +9091,7 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>586</v>
+        <v>638</v>
       </c>
       <c r="B353" s="0" t="s">
         <v>144</v>
@@ -8617,7 +9100,7 @@
         <v>3</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>587</v>
+        <v>639</v>
       </c>
       <c r="E353" s="0" t="s">
         <v>157</v>
@@ -8625,7 +9108,7 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>588</v>
+        <v>640</v>
       </c>
       <c r="B354" s="0" t="s">
         <v>144</v>
@@ -8634,15 +9117,18 @@
         <v>3</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>589</v>
+        <v>641</v>
       </c>
       <c r="E354" s="0" t="s">
-        <v>590</v>
+        <v>642</v>
+      </c>
+      <c r="F354" s="0" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>588</v>
+        <v>640</v>
       </c>
       <c r="B355" s="0" t="s">
         <v>144</v>
@@ -8651,15 +9137,18 @@
         <v>3</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>589</v>
+        <v>641</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>591</v>
+        <v>644</v>
+      </c>
+      <c r="F355" s="0" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>592</v>
+        <v>645</v>
       </c>
       <c r="B356" s="0" t="s">
         <v>144</v>
@@ -8668,15 +9157,18 @@
         <v>3</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>593</v>
+        <v>646</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>594</v>
+        <v>647</v>
+      </c>
+      <c r="F356" s="0" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>595</v>
+        <v>649</v>
       </c>
       <c r="B357" s="0" t="s">
         <v>144</v>
@@ -8685,15 +9177,18 @@
         <v>3</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>596</v>
+        <v>650</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>597</v>
+        <v>651</v>
+      </c>
+      <c r="F357" s="0" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>598</v>
+        <v>653</v>
       </c>
       <c r="B358" s="0" t="s">
         <v>144</v>
@@ -8702,15 +9197,18 @@
         <v>3</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>599</v>
+        <v>654</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>600</v>
+        <v>655</v>
+      </c>
+      <c r="F358" s="0" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>598</v>
+        <v>653</v>
       </c>
       <c r="B359" s="0" t="s">
         <v>144</v>
@@ -8719,7 +9217,7 @@
         <v>3</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>599</v>
+        <v>654</v>
       </c>
       <c r="E359" s="0" t="s">
         <v>84</v>
@@ -8727,7 +9225,7 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>601</v>
+        <v>657</v>
       </c>
       <c r="B360" s="0" t="s">
         <v>159</v>
@@ -8736,15 +9234,18 @@
         <v>3</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>602</v>
+        <v>658</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>603</v>
+        <v>659</v>
+      </c>
+      <c r="F360" s="0" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>604</v>
+        <v>661</v>
       </c>
       <c r="B361" s="0" t="s">
         <v>159</v>
@@ -8753,15 +9254,15 @@
         <v>3</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>606</v>
+        <v>663</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>607</v>
+        <v>664</v>
       </c>
       <c r="B362" s="0" t="s">
         <v>159</v>
@@ -8770,15 +9271,15 @@
         <v>3</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>608</v>
+        <v>665</v>
       </c>
       <c r="E362" s="0" t="s">
-        <v>609</v>
+        <v>666</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>610</v>
+        <v>667</v>
       </c>
       <c r="B363" s="0" t="s">
         <v>159</v>
@@ -8787,10 +9288,13 @@
         <v>3</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>611</v>
+        <v>668</v>
       </c>
       <c r="E363" s="0" t="s">
         <v>83</v>
+      </c>
+      <c r="F363" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8804,7 +9308,7 @@
         <v>3</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>612</v>
+        <v>669</v>
       </c>
       <c r="E364" s="0" t="s">
         <v>78</v>
@@ -8812,7 +9316,7 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="B365" s="0" t="s">
         <v>159</v>
@@ -8821,10 +9325,13 @@
         <v>3</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>613</v>
+        <v>670</v>
       </c>
       <c r="E365" s="0" t="s">
-        <v>614</v>
+        <v>671</v>
+      </c>
+      <c r="F365" s="0" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8838,15 +9345,18 @@
         <v>3</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>615</v>
+        <v>673</v>
       </c>
       <c r="E366" s="0" t="s">
         <v>137</v>
       </c>
+      <c r="F366" s="0" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>616</v>
+        <v>674</v>
       </c>
       <c r="B367" s="0" t="s">
         <v>159</v>
@@ -8855,593 +9365,653 @@
         <v>3</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>617</v>
+        <v>675</v>
       </c>
       <c r="E367" s="0" t="s">
-        <v>618</v>
+        <v>676</v>
+      </c>
+      <c r="F367" s="0" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C368" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>619</v>
+        <v>678</v>
       </c>
       <c r="E368" s="0" t="s">
-        <v>620</v>
+        <v>679</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C369" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>621</v>
+        <v>680</v>
       </c>
       <c r="E369" s="0" t="s">
-        <v>622</v>
+        <v>681</v>
+      </c>
+      <c r="F369" s="0" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C370" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>621</v>
+        <v>680</v>
       </c>
       <c r="E370" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C371" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="E371" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C372" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="E372" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C373" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>625</v>
+        <v>685</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>588</v>
+      </c>
+      <c r="F373" s="0" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>626</v>
+        <v>686</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C374" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="E374" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C375" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>629</v>
+        <v>689</v>
       </c>
       <c r="E375" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="F375" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>630</v>
+        <v>690</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C376" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>631</v>
+        <v>691</v>
       </c>
       <c r="E376" s="0" t="s">
-        <v>632</v>
+        <v>692</v>
+      </c>
+      <c r="F376" s="0" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>633</v>
+        <v>694</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C377" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>634</v>
+        <v>695</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>633</v>
+        <v>694</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C378" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>634</v>
+        <v>695</v>
       </c>
       <c r="E378" s="0" t="s">
-        <v>636</v>
+        <v>697</v>
+      </c>
+      <c r="F378" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>637</v>
+        <v>698</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C379" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>638</v>
+        <v>699</v>
       </c>
       <c r="E379" s="0" t="s">
-        <v>639</v>
+        <v>700</v>
+      </c>
+      <c r="F379" s="0" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C380" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>640</v>
+        <v>702</v>
       </c>
       <c r="E380" s="0" t="s">
-        <v>641</v>
+        <v>703</v>
+      </c>
+      <c r="F380" s="0" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C381" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>642</v>
+        <v>705</v>
       </c>
       <c r="E381" s="0" t="s">
-        <v>643</v>
+        <v>706</v>
+      </c>
+      <c r="F381" s="0" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C382" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D382" s="0" t="s">
-        <v>644</v>
+        <v>708</v>
       </c>
       <c r="E382" s="0" t="s">
-        <v>645</v>
+        <v>709</v>
+      </c>
+      <c r="F382" s="0" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>646</v>
+        <v>711</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C383" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="E383" s="0" t="s">
-        <v>648</v>
+        <v>713</v>
+      </c>
+      <c r="F383" s="0" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C384" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D384" s="0" t="s">
-        <v>649</v>
+        <v>715</v>
       </c>
       <c r="E384" s="0" t="s">
-        <v>650</v>
+        <v>716</v>
+      </c>
+      <c r="F384" s="0" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C385" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>649</v>
+        <v>715</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>651</v>
+        <v>718</v>
+      </c>
+      <c r="F385" s="0" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C386" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>652</v>
+        <v>720</v>
       </c>
       <c r="E386" s="0" t="s">
-        <v>653</v>
+        <v>721</v>
+      </c>
+      <c r="F386" s="0" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>654</v>
+        <v>723</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C387" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D387" s="0" t="s">
-        <v>655</v>
+        <v>724</v>
       </c>
       <c r="E387" s="0" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C388" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D388" s="0" t="s">
-        <v>656</v>
+        <v>725</v>
       </c>
       <c r="E388" s="0" t="s">
-        <v>657</v>
+        <v>726</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C389" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>658</v>
+        <v>727</v>
       </c>
       <c r="E389" s="0" t="s">
-        <v>659</v>
+        <v>728</v>
+      </c>
+      <c r="F389" s="0" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C390" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D390" s="0" t="s">
-        <v>660</v>
+        <v>730</v>
       </c>
       <c r="E390" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C391" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D391" s="0" t="s">
-        <v>661</v>
+        <v>731</v>
       </c>
       <c r="E391" s="0" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C392" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D392" s="0" t="s">
-        <v>662</v>
+        <v>732</v>
       </c>
       <c r="E392" s="0" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C393" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D393" s="0" t="s">
-        <v>663</v>
+        <v>733</v>
       </c>
       <c r="E393" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>664</v>
+        <v>734</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C394" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D394" s="0" t="s">
-        <v>665</v>
+        <v>735</v>
       </c>
       <c r="E394" s="0" t="s">
-        <v>666</v>
+        <v>736</v>
+      </c>
+      <c r="F394" s="0" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>667</v>
+        <v>738</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C395" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D395" s="0" t="s">
-        <v>668</v>
+        <v>739</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>669</v>
+        <v>740</v>
+      </c>
+      <c r="F395" s="0" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>670</v>
+        <v>742</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C396" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D396" s="0" t="s">
-        <v>671</v>
+        <v>743</v>
       </c>
       <c r="E396" s="0" t="s">
-        <v>672</v>
+        <v>744</v>
+      </c>
+      <c r="F396" s="0" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C397" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D397" s="0" t="s">
-        <v>673</v>
+        <v>746</v>
       </c>
       <c r="E397" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C398" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D398" s="0" t="s">
-        <v>673</v>
+        <v>746</v>
       </c>
       <c r="E398" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C399" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>673</v>
+        <v>746</v>
       </c>
       <c r="E399" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>674</v>
+        <v>747</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C400" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D400" s="0" t="s">
-        <v>675</v>
+        <v>748</v>
       </c>
       <c r="E400" s="0" t="s">
-        <v>676</v>
+        <v>749</v>
+      </c>
+      <c r="F400" s="0" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>674</v>
+        <v>747</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C401" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D401" s="0" t="s">
-        <v>675</v>
+        <v>748</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>677</v>
+        <v>751</v>
+      </c>
+      <c r="F401" s="0" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B402" s="0" t="s">
         <v>7</v>
@@ -9450,7 +10020,7 @@
         <v>4</v>
       </c>
       <c r="D402" s="0" t="s">
-        <v>678</v>
+        <v>753</v>
       </c>
       <c r="E402" s="0" t="s">
         <v>26</v>
@@ -9467,7 +10037,7 @@
         <v>4</v>
       </c>
       <c r="D403" s="0" t="s">
-        <v>679</v>
+        <v>754</v>
       </c>
       <c r="E403" s="0" t="s">
         <v>25</v>
@@ -9484,7 +10054,7 @@
         <v>4</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>679</v>
+        <v>754</v>
       </c>
       <c r="E404" s="0" t="s">
         <v>26</v>
@@ -9501,7 +10071,7 @@
         <v>4</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>680</v>
+        <v>755</v>
       </c>
       <c r="E405" s="0" t="s">
         <v>12</v>
@@ -9509,7 +10079,7 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B406" s="0" t="s">
         <v>7</v>
@@ -9518,7 +10088,7 @@
         <v>4</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>681</v>
+        <v>756</v>
       </c>
       <c r="E406" s="0" t="s">
         <v>12</v>
@@ -9526,7 +10096,7 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B407" s="0" t="s">
         <v>7</v>
@@ -9535,15 +10105,15 @@
         <v>4</v>
       </c>
       <c r="D407" s="0" t="s">
-        <v>682</v>
+        <v>757</v>
       </c>
       <c r="E407" s="0" t="s">
-        <v>683</v>
+        <v>758</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="B408" s="0" t="s">
         <v>7</v>
@@ -9552,10 +10122,10 @@
         <v>4</v>
       </c>
       <c r="D408" s="0" t="s">
-        <v>684</v>
+        <v>759</v>
       </c>
       <c r="E408" s="0" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9569,7 +10139,7 @@
         <v>4</v>
       </c>
       <c r="D409" s="0" t="s">
-        <v>685</v>
+        <v>760</v>
       </c>
       <c r="E409" s="0" t="s">
         <v>26</v>
@@ -9586,7 +10156,7 @@
         <v>4</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>686</v>
+        <v>761</v>
       </c>
       <c r="E410" s="0" t="s">
         <v>12</v>
@@ -9603,7 +10173,7 @@
         <v>4</v>
       </c>
       <c r="D411" s="0" t="s">
-        <v>686</v>
+        <v>761</v>
       </c>
       <c r="E411" s="0" t="s">
         <v>13</v>
@@ -9620,7 +10190,7 @@
         <v>4</v>
       </c>
       <c r="D412" s="0" t="s">
-        <v>687</v>
+        <v>762</v>
       </c>
       <c r="E412" s="0" t="s">
         <v>75</v>
@@ -9637,7 +10207,7 @@
         <v>4</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>687</v>
+        <v>762</v>
       </c>
       <c r="E413" s="0" t="s">
         <v>12</v>
@@ -9654,7 +10224,7 @@
         <v>4</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>687</v>
+        <v>762</v>
       </c>
       <c r="E414" s="0" t="s">
         <v>13</v>
@@ -9671,10 +10241,10 @@
         <v>4</v>
       </c>
       <c r="D415" s="0" t="s">
-        <v>687</v>
+        <v>762</v>
       </c>
       <c r="E415" s="0" t="s">
-        <v>688</v>
+        <v>763</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9688,7 +10258,7 @@
         <v>4</v>
       </c>
       <c r="D416" s="0" t="s">
-        <v>689</v>
+        <v>764</v>
       </c>
       <c r="E416" s="0" t="s">
         <v>12</v>
@@ -9705,10 +10275,10 @@
         <v>4</v>
       </c>
       <c r="D417" s="0" t="s">
-        <v>690</v>
+        <v>765</v>
       </c>
       <c r="E417" s="0" t="s">
-        <v>691</v>
+        <v>766</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9722,15 +10292,18 @@
         <v>4</v>
       </c>
       <c r="D418" s="0" t="s">
-        <v>692</v>
+        <v>767</v>
       </c>
       <c r="E418" s="0" t="s">
-        <v>693</v>
+        <v>768</v>
+      </c>
+      <c r="F418" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B419" s="0" t="s">
         <v>7</v>
@@ -9739,7 +10312,7 @@
         <v>4</v>
       </c>
       <c r="D419" s="0" t="s">
-        <v>694</v>
+        <v>769</v>
       </c>
       <c r="E419" s="0" t="s">
         <v>12</v>
@@ -9747,7 +10320,7 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B420" s="0" t="s">
         <v>7</v>
@@ -9756,7 +10329,7 @@
         <v>4</v>
       </c>
       <c r="D420" s="0" t="s">
-        <v>694</v>
+        <v>769</v>
       </c>
       <c r="E420" s="0" t="s">
         <v>12</v>
@@ -9773,7 +10346,7 @@
         <v>4</v>
       </c>
       <c r="D421" s="0" t="s">
-        <v>695</v>
+        <v>770</v>
       </c>
       <c r="E421" s="0" t="s">
         <v>26</v>
@@ -9790,15 +10363,18 @@
         <v>4</v>
       </c>
       <c r="D422" s="0" t="s">
-        <v>696</v>
+        <v>771</v>
       </c>
       <c r="E422" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="F422" s="0" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B423" s="0" t="s">
         <v>7</v>
@@ -9807,10 +10383,13 @@
         <v>4</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>697</v>
+        <v>772</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>698</v>
+        <v>773</v>
+      </c>
+      <c r="F423" s="0" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9824,7 +10403,7 @@
         <v>4</v>
       </c>
       <c r="D424" s="0" t="s">
-        <v>699</v>
+        <v>775</v>
       </c>
       <c r="E424" s="0" t="s">
         <v>12</v>
@@ -9841,15 +10420,18 @@
         <v>4</v>
       </c>
       <c r="D425" s="0" t="s">
-        <v>699</v>
+        <v>775</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>304</v>
+        <v>321</v>
+      </c>
+      <c r="F425" s="0" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B426" s="0" t="s">
         <v>7</v>
@@ -9858,7 +10440,7 @@
         <v>4</v>
       </c>
       <c r="D426" s="0" t="s">
-        <v>700</v>
+        <v>776</v>
       </c>
       <c r="E426" s="0" t="s">
         <v>26</v>
@@ -9875,7 +10457,7 @@
         <v>4</v>
       </c>
       <c r="D427" s="0" t="s">
-        <v>701</v>
+        <v>777</v>
       </c>
       <c r="E427" s="0" t="s">
         <v>12</v>
@@ -9892,7 +10474,7 @@
         <v>4</v>
       </c>
       <c r="D428" s="0" t="s">
-        <v>702</v>
+        <v>778</v>
       </c>
       <c r="E428" s="0" t="s">
         <v>60</v>
@@ -9909,7 +10491,7 @@
         <v>4</v>
       </c>
       <c r="D429" s="0" t="s">
-        <v>703</v>
+        <v>779</v>
       </c>
       <c r="E429" s="0" t="s">
         <v>12</v>
@@ -9926,7 +10508,7 @@
         <v>4</v>
       </c>
       <c r="D430" s="0" t="s">
-        <v>703</v>
+        <v>779</v>
       </c>
       <c r="E430" s="0" t="s">
         <v>13</v>
@@ -9943,7 +10525,7 @@
         <v>4</v>
       </c>
       <c r="D431" s="0" t="s">
-        <v>703</v>
+        <v>779</v>
       </c>
       <c r="E431" s="0" t="s">
         <v>12</v>
@@ -9960,7 +10542,7 @@
         <v>4</v>
       </c>
       <c r="D432" s="0" t="s">
-        <v>703</v>
+        <v>779</v>
       </c>
       <c r="E432" s="0" t="s">
         <v>12</v>
@@ -9968,7 +10550,7 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>704</v>
+        <v>780</v>
       </c>
       <c r="B433" s="0" t="s">
         <v>7</v>
@@ -9977,15 +10559,18 @@
         <v>4</v>
       </c>
       <c r="D433" s="0" t="s">
-        <v>705</v>
+        <v>781</v>
       </c>
       <c r="E433" s="0" t="s">
-        <v>706</v>
+        <v>782</v>
+      </c>
+      <c r="F433" s="0" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>704</v>
+        <v>780</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>7</v>
@@ -9994,15 +10579,18 @@
         <v>4</v>
       </c>
       <c r="D434" s="0" t="s">
-        <v>705</v>
+        <v>781</v>
       </c>
       <c r="E434" s="0" t="s">
-        <v>707</v>
+        <v>784</v>
+      </c>
+      <c r="F434" s="0" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="B435" s="0" t="s">
         <v>68</v>
@@ -10011,10 +10599,10 @@
         <v>4</v>
       </c>
       <c r="D435" s="0" t="s">
-        <v>709</v>
+        <v>787</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10028,7 +10616,7 @@
         <v>4</v>
       </c>
       <c r="D436" s="0" t="s">
-        <v>710</v>
+        <v>788</v>
       </c>
       <c r="E436" s="0" t="s">
         <v>70</v>
@@ -10036,7 +10624,7 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="B437" s="0" t="s">
         <v>68</v>
@@ -10045,15 +10633,18 @@
         <v>4</v>
       </c>
       <c r="D437" s="0" t="s">
-        <v>711</v>
+        <v>789</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>712</v>
+        <v>790</v>
+      </c>
+      <c r="F437" s="0" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B438" s="0" t="s">
         <v>68</v>
@@ -10062,7 +10653,7 @@
         <v>4</v>
       </c>
       <c r="D438" s="0" t="s">
-        <v>713</v>
+        <v>792</v>
       </c>
       <c r="E438" s="0" t="s">
         <v>70</v>
@@ -10070,7 +10661,7 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="B439" s="0" t="s">
         <v>68</v>
@@ -10079,15 +10670,15 @@
         <v>4</v>
       </c>
       <c r="D439" s="0" t="s">
-        <v>714</v>
+        <v>793</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>715</v>
+        <v>794</v>
       </c>
       <c r="B440" s="0" t="s">
         <v>68</v>
@@ -10096,7 +10687,7 @@
         <v>4</v>
       </c>
       <c r="D440" s="0" t="s">
-        <v>716</v>
+        <v>795</v>
       </c>
       <c r="E440" s="0" t="s">
         <v>70</v>
@@ -10104,7 +10695,7 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>717</v>
+        <v>796</v>
       </c>
       <c r="B441" s="0" t="s">
         <v>68</v>
@@ -10113,15 +10704,15 @@
         <v>4</v>
       </c>
       <c r="D441" s="0" t="s">
-        <v>718</v>
+        <v>797</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>719</v>
+        <v>798</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="B442" s="0" t="s">
         <v>113</v>
@@ -10130,15 +10721,18 @@
         <v>4</v>
       </c>
       <c r="D442" s="0" t="s">
-        <v>720</v>
+        <v>799</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>365</v>
+        <v>388</v>
+      </c>
+      <c r="F442" s="0" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>721</v>
+        <v>800</v>
       </c>
       <c r="B443" s="0" t="s">
         <v>113</v>
@@ -10147,10 +10741,13 @@
         <v>4</v>
       </c>
       <c r="D443" s="0" t="s">
-        <v>722</v>
+        <v>801</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>541</v>
+        <v>588</v>
+      </c>
+      <c r="F443" s="0" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10164,7 +10761,7 @@
         <v>4</v>
       </c>
       <c r="D444" s="0" t="s">
-        <v>723</v>
+        <v>802</v>
       </c>
       <c r="E444" s="0" t="s">
         <v>119</v>
@@ -10172,7 +10769,7 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>724</v>
+        <v>803</v>
       </c>
       <c r="B445" s="0" t="s">
         <v>113</v>
@@ -10181,15 +10778,18 @@
         <v>4</v>
       </c>
       <c r="D445" s="0" t="s">
-        <v>725</v>
+        <v>804</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>726</v>
+        <v>805</v>
+      </c>
+      <c r="F445" s="0" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>727</v>
+        <v>807</v>
       </c>
       <c r="B446" s="0" t="s">
         <v>113</v>
@@ -10198,15 +10798,15 @@
         <v>4</v>
       </c>
       <c r="D446" s="0" t="s">
-        <v>728</v>
+        <v>808</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>729</v>
+        <v>809</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>586</v>
+        <v>638</v>
       </c>
       <c r="B447" s="0" t="s">
         <v>144</v>
@@ -10215,15 +10815,15 @@
         <v>4</v>
       </c>
       <c r="D447" s="0" t="s">
-        <v>730</v>
+        <v>810</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>731</v>
+        <v>811</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>732</v>
+        <v>812</v>
       </c>
       <c r="B448" s="0" t="s">
         <v>144</v>
@@ -10232,15 +10832,15 @@
         <v>4</v>
       </c>
       <c r="D448" s="0" t="s">
-        <v>733</v>
+        <v>813</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>734</v>
+        <v>814</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>595</v>
+        <v>649</v>
       </c>
       <c r="B449" s="0" t="s">
         <v>144</v>
@@ -10249,15 +10849,18 @@
         <v>4</v>
       </c>
       <c r="D449" s="0" t="s">
-        <v>735</v>
+        <v>815</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>597</v>
+        <v>651</v>
+      </c>
+      <c r="F449" s="0" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>736</v>
+        <v>817</v>
       </c>
       <c r="B450" s="0" t="s">
         <v>144</v>
@@ -10266,15 +10869,18 @@
         <v>4</v>
       </c>
       <c r="D450" s="0" t="s">
-        <v>737</v>
+        <v>818</v>
       </c>
       <c r="E450" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="F450" s="0" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>738</v>
+        <v>819</v>
       </c>
       <c r="B451" s="0" t="s">
         <v>144</v>
@@ -10283,15 +10889,18 @@
         <v>4</v>
       </c>
       <c r="D451" s="0" t="s">
-        <v>739</v>
+        <v>820</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>740</v>
+        <v>821</v>
+      </c>
+      <c r="F451" s="0" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>741</v>
+        <v>823</v>
       </c>
       <c r="B452" s="0" t="s">
         <v>144</v>
@@ -10300,15 +10909,18 @@
         <v>4</v>
       </c>
       <c r="D452" s="0" t="s">
-        <v>742</v>
+        <v>824</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>743</v>
+        <v>825</v>
+      </c>
+      <c r="F452" s="0" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>601</v>
+        <v>657</v>
       </c>
       <c r="B453" s="0" t="s">
         <v>159</v>
@@ -10317,15 +10929,15 @@
         <v>4</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>744</v>
+        <v>827</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>745</v>
+        <v>828</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>746</v>
+        <v>829</v>
       </c>
       <c r="B454" s="0" t="s">
         <v>159</v>
@@ -10334,15 +10946,18 @@
         <v>4</v>
       </c>
       <c r="D454" s="0" t="s">
-        <v>747</v>
+        <v>830</v>
       </c>
       <c r="E454" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="F454" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>746</v>
+        <v>829</v>
       </c>
       <c r="B455" s="0" t="s">
         <v>159</v>
@@ -10351,15 +10966,18 @@
         <v>4</v>
       </c>
       <c r="D455" s="0" t="s">
-        <v>747</v>
+        <v>830</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>748</v>
+        <v>831</v>
+      </c>
+      <c r="F455" s="0" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>749</v>
+        <v>833</v>
       </c>
       <c r="B456" s="0" t="s">
         <v>159</v>
@@ -10368,7 +10986,7 @@
         <v>4</v>
       </c>
       <c r="D456" s="0" t="s">
-        <v>750</v>
+        <v>834</v>
       </c>
       <c r="E456" s="0" t="s">
         <v>84</v>
@@ -10376,7 +10994,7 @@
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>604</v>
+        <v>661</v>
       </c>
       <c r="B457" s="0" t="s">
         <v>159</v>
@@ -10385,15 +11003,15 @@
         <v>4</v>
       </c>
       <c r="D457" s="0" t="s">
-        <v>751</v>
+        <v>835</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>606</v>
+        <v>663</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="B458" s="0" t="s">
         <v>159</v>
@@ -10402,10 +11020,10 @@
         <v>4</v>
       </c>
       <c r="D458" s="0" t="s">
-        <v>752</v>
+        <v>836</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>753</v>
+        <v>837</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10419,15 +11037,15 @@
         <v>4</v>
       </c>
       <c r="D459" s="0" t="s">
-        <v>754</v>
+        <v>838</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>755</v>
+        <v>839</v>
       </c>
       <c r="B460" s="0" t="s">
         <v>159</v>
@@ -10436,24 +11054,27 @@
         <v>4</v>
       </c>
       <c r="D460" s="0" t="s">
-        <v>756</v>
+        <v>840</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>757</v>
+        <v>841</v>
+      </c>
+      <c r="F460" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C461" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D461" s="0" t="s">
-        <v>758</v>
+        <v>842</v>
       </c>
       <c r="E461" s="0" t="s">
         <v>75</v>
@@ -10461,50 +11082,53 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C462" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D462" s="0" t="s">
-        <v>758</v>
+        <v>842</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>759</v>
+        <v>843</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C463" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D463" s="0" t="s">
-        <v>760</v>
+        <v>844</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>761</v>
+        <v>845</v>
+      </c>
+      <c r="F463" s="0" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>759</v>
+        <v>843</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C464" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D464" s="0" t="s">
-        <v>760</v>
+        <v>844</v>
       </c>
       <c r="E464" s="0" t="s">
         <v>9</v>
@@ -10512,84 +11136,84 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C465" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D465" s="0" t="s">
-        <v>762</v>
+        <v>847</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C466" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D466" s="0" t="s">
-        <v>763</v>
+        <v>848</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C467" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D467" s="0" t="s">
-        <v>763</v>
+        <v>848</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>764</v>
+        <v>849</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>765</v>
+        <v>850</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C468" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D468" s="0" t="s">
-        <v>766</v>
+        <v>851</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>767</v>
+        <v>852</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C469" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D469" s="0" t="s">
-        <v>768</v>
+        <v>853</v>
       </c>
       <c r="E469" s="0" t="s">
         <v>9</v>
@@ -10597,186 +11221,213 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>769</v>
+        <v>854</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C470" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D470" s="0" t="s">
-        <v>770</v>
+        <v>855</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>771</v>
+        <v>856</v>
+      </c>
+      <c r="F470" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C471" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D471" s="0" t="s">
-        <v>772</v>
+        <v>857</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>773</v>
+        <v>858</v>
+      </c>
+      <c r="F471" s="0" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C472" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D472" s="0" t="s">
-        <v>774</v>
+        <v>860</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>775</v>
+        <v>861</v>
+      </c>
+      <c r="F472" s="0" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C473" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D473" s="0" t="s">
-        <v>776</v>
+        <v>863</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>541</v>
+        <v>588</v>
+      </c>
+      <c r="F473" s="0" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C474" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D474" s="0" t="s">
-        <v>777</v>
+        <v>864</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>778</v>
+        <v>865</v>
+      </c>
+      <c r="F474" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>779</v>
+        <v>866</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C475" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D475" s="0" t="s">
-        <v>780</v>
+        <v>867</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>781</v>
+        <v>868</v>
+      </c>
+      <c r="F475" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>782</v>
+        <v>869</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C476" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D476" s="0" t="s">
-        <v>783</v>
+        <v>870</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>784</v>
+        <v>871</v>
+      </c>
+      <c r="F476" s="0" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>782</v>
+        <v>869</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C477" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D477" s="0" t="s">
-        <v>783</v>
+        <v>870</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>785</v>
+        <v>873</v>
+      </c>
+      <c r="F477" s="0" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C478" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D478" s="0" t="s">
-        <v>786</v>
+        <v>875</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>787</v>
+        <v>876</v>
+      </c>
+      <c r="F478" s="0" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>788</v>
+        <v>878</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C479" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D479" s="0" t="s">
-        <v>789</v>
+        <v>879</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>790</v>
+        <v>880</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C480" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D480" s="0" t="s">
-        <v>791</v>
+        <v>881</v>
       </c>
       <c r="E480" s="0" t="s">
         <v>75</v>
@@ -10784,16 +11435,16 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>792</v>
+        <v>882</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C481" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>793</v>
+        <v>883</v>
       </c>
       <c r="E481" s="0" t="s">
         <v>75</v>
@@ -10801,118 +11452,121 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C482" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D482" s="0" t="s">
-        <v>794</v>
+        <v>884</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>653</v>
+        <v>721</v>
+      </c>
+      <c r="F482" s="0" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C483" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D483" s="0" t="s">
-        <v>795</v>
+        <v>885</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>796</v>
+        <v>886</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C484" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D484" s="0" t="s">
-        <v>795</v>
+        <v>885</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>797</v>
+        <v>887</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C485" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D485" s="0" t="s">
-        <v>798</v>
+        <v>888</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C486" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D486" s="0" t="s">
-        <v>798</v>
+        <v>888</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C487" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D487" s="0" t="s">
-        <v>799</v>
+        <v>889</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>800</v>
+        <v>890</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C488" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D488" s="0" t="s">
-        <v>799</v>
+        <v>889</v>
       </c>
       <c r="E488" s="0" t="s">
         <v>75</v>
@@ -10920,70 +11574,76 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C489" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D489" s="0" t="s">
-        <v>801</v>
+        <v>891</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>802</v>
+        <v>892</v>
+      </c>
+      <c r="F489" s="0" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C490" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D490" s="0" t="s">
-        <v>803</v>
+        <v>894</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C491" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D491" s="0" t="s">
-        <v>803</v>
+        <v>894</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>804</v>
+        <v>895</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C492" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D492" s="0" t="s">
-        <v>805</v>
+        <v>896</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>806</v>
+        <v>897</v>
+      </c>
+      <c r="F492" s="0" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>
